--- a/Pokemon_Go.xlsx
+++ b/Pokemon_Go.xlsx
@@ -2992,8 +2992,8 @@
   </sheetPr>
   <dimension ref="A1:AC805"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3140,7 +3140,7 @@
         <v>90</v>
       </c>
       <c r="Q2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="3">
         <v>1</v>
@@ -3149,10 +3149,10 @@
         <v>1</v>
       </c>
       <c r="T2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2" s="3">
         <v>5</v>
@@ -3327,7 +3327,7 @@
         <v>1</v>
       </c>
       <c r="T4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
@@ -3589,7 +3589,7 @@
         <v>0</v>
       </c>
       <c r="U7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" s="3">
         <v>0</v>
@@ -71305,7 +71305,7 @@
         <v>0</v>
       </c>
       <c r="U801" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V801" s="3">
         <v>0</v>

--- a/Pokemon_Go.xlsx
+++ b/Pokemon_Go.xlsx
@@ -2993,7 +2993,7 @@
   <dimension ref="A1:AC805"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3158,7 +3158,7 @@
         <v>5</v>
       </c>
       <c r="W2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2" s="2">
         <v>1</v>
@@ -3229,7 +3229,7 @@
         <v>120</v>
       </c>
       <c r="Q3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="3">
         <v>1</v>
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="W3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3" s="2">
         <v>0</v>
@@ -3318,7 +3318,7 @@
         <v>160</v>
       </c>
       <c r="Q4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="3">
         <v>1</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4" s="2">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         <v>5</v>
       </c>
       <c r="W5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5" s="2">
         <v>1</v>
@@ -3488,7 +3488,7 @@
         <v>116</v>
       </c>
       <c r="Q6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="3">
         <v>1</v>
@@ -3577,7 +3577,7 @@
         <v>156</v>
       </c>
       <c r="Q7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="3">
         <v>1</v>
@@ -3595,7 +3595,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7" s="2">
         <v>0</v>
@@ -3662,7 +3662,7 @@
         <v>88</v>
       </c>
       <c r="Q8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="3">
         <v>1</v>
@@ -3680,7 +3680,7 @@
         <v>5</v>
       </c>
       <c r="W8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" s="2">
         <v>1</v>
@@ -3747,7 +3747,7 @@
         <v>118</v>
       </c>
       <c r="Q9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="3">
         <v>1</v>
@@ -3765,7 +3765,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9" s="2">
         <v>0</v>
@@ -3832,7 +3832,7 @@
         <v>158</v>
       </c>
       <c r="Q10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="3">
         <v>1</v>
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10" s="2">
         <v>0</v>
@@ -3917,7 +3917,7 @@
         <v>90</v>
       </c>
       <c r="Q11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="3">
         <v>1</v>
@@ -4020,7 +4020,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12" s="2">
         <v>0</v>
@@ -4091,7 +4091,7 @@
         <v>120</v>
       </c>
       <c r="Q13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="3">
         <v>1</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13" s="2">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>80</v>
       </c>
       <c r="Q14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="3">
         <v>1</v>
@@ -4269,7 +4269,7 @@
         <v>90</v>
       </c>
       <c r="Q15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="3">
         <v>1</v>
@@ -4287,7 +4287,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15" s="2">
         <v>0</v>
@@ -4358,7 +4358,7 @@
         <v>130</v>
       </c>
       <c r="Q16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="3">
         <v>1</v>
@@ -4376,7 +4376,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X16" s="2">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X18" s="2">
         <v>0</v>
@@ -4625,7 +4625,7 @@
         <v>166</v>
       </c>
       <c r="Q19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" s="3">
         <v>1</v>
@@ -4643,7 +4643,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19" s="2">
         <v>0</v>
@@ -4728,7 +4728,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20" s="2">
         <v>1</v>
@@ -4813,7 +4813,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X21" s="2">
         <v>0</v>
